--- a/IndividualLogins/Content/ExcelPackageTemplate.xlsx
+++ b/IndividualLogins/Content/ExcelPackageTemplate.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t xml:space="preserve">icmr|idmr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">icar|idar</t>
   </si>
   <si>
     <t xml:space="preserve">sdmr</t>
@@ -251,28 +248,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:AU1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.5918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.7551020408163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.9081632653061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.5918367346939"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="11.4744897959184"/>
-    <col collapsed="false" hidden="false" max="14" min="12" style="1" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="11.4744897959184"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="11.9081632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="1" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.4744897959184"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="14" min="12" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="1022" min="18" style="1" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="7.69387755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -282,50 +280,80 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
